--- a/Code/Questionnaire.Data/SeedFiles/Firms.xlsx
+++ b/Code/Questionnaire.Data/SeedFiles/Firms.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Симферополь Склад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краснодар Склад</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -258,6 +261,20 @@
       </c>
       <c r="D5" s="0" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
